--- a/outputs-HGR-r202-archive/f__Propionibacteriaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Propionibacteriaceae.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
     </row>
